--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAEEE0F-AE8F-4C94-8C4A-F859F1C4003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA5CAD-610C-4BE0-8754-CC5F9ECBC79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3FDB8-C0AC-48FB-A3E6-B3BF43C85D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EA6D69-7855-434C-B833-F875EF8FD0EE}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A5BCB4-53DE-4BEC-B5B0-D21FE728E980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77B9B2E-5381-4616-BEC8-3C131DCF59E6}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE601BB3-28AD-4372-A039-6BB4A4E2607F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60106963-09A6-45B7-B21B-A3D135A1805A}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA5CAD-610C-4BE0-8754-CC5F9ECBC79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BB61A4-E1A1-4F76-A3C4-F0AAD624311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EA6D69-7855-434C-B833-F875EF8FD0EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DEB40-B9AC-4698-B2DD-BE7D4E1020AA}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77B9B2E-5381-4616-BEC8-3C131DCF59E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079EC1D7-D137-44DE-AAFA-C9C1368770FB}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60106963-09A6-45B7-B21B-A3D135A1805A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D058B7-C659-4CB2-8C8C-7538B6267718}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027AEC05-AB00-4616-9322-403D6FB1A419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375D44D-D7C0-4ABF-97FB-4D21F325BAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +76,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -277,73 +293,13 @@
   </si>
   <si>
     <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>AllSaAllH</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>elc_spv-DEU</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
-  </si>
-  <si>
-    <t>elc_won-DEU</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,35 +353,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,26 +377,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -508,36 +419,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -549,7 +430,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -565,16 +446,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -597,61 +468,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0439BFC4-BB66-FD58-C256-12634D48E395}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,14 +785,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>Not Required!</v>
+        <v>~UC_T: LO</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -990,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -1005,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -1013,21 +829,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>AllSaAllH</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1045,21 +861,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>AllSaAllH</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1071,26 +887,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1118,551 +934,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1672,274 +1488,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49A1B65-AEDE-4AF3-90C3-3704DEF4159B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238E256-FFF9-45A6-B7D8-1ADD7FF7C25B}">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC8956D-4389-42EC-8557-4FF39E513FCE}">
-  <dimension ref="A1:O11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="M2" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="M3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="M4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0.99999999999983202</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0.99999999999978673</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50D68EA-E458-4557-9452-6E32CAF93E4F}">
-  <dimension ref="B2:O5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.0000000000000002</v>
       </c>
       <c r="D4" t="s">
         <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4">
-        <v>0.34111765552101359</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375D44D-D7C0-4ABF-97FB-4D21F325BAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB0D5F6-424E-4B0C-BA3B-A6529B13A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
   <si>
     <t>UC_N</t>
   </si>
@@ -76,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -293,13 +277,77 @@
   </si>
   <si>
     <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>AllSaAllH</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_spv-DEU</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>elc_won-DEU</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +401,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +452,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -419,6 +512,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -430,7 +553,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -446,6 +569,17 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -468,6 +602,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5005C40-A0A6-A42A-E1E3-95987B0A8327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,14 +974,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>~UC_T: LO</v>
+        <v>Not Required!</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -806,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -821,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -829,21 +1018,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -861,21 +1050,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -887,26 +1076,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -934,551 +1123,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1488,50 +1677,302 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238E256-FFF9-45A6-B7D8-1ADD7FF7C25B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7143F8A1-34D5-4721-AFED-CABCDAF6E2AA}">
   <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341E2E92-4E13-4BBA-9194-2AA7AACE48FC}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M2" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.99999999999983202</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.99999999999978673</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="15">
+        <v>4755.5154264408775</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE68C1A-0F2F-4479-BF1F-800FEF1B07B1}">
+  <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="M3" t="s">
         <v>82</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0000000000000002</v>
       </c>
       <c r="D4" t="s">
         <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4">
+        <v>0.34111765552101359</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB0D5F6-424E-4B0C-BA3B-A6529B13A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78BC4230-9953-4941-BDD8-70089943BB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -615,7 +615,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
+      <xdr:colOff>296862</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5005C40-A0A6-A42A-E1E3-95987B0A8327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D7A8E6-2A0A-C22B-62C2-065367ED73C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7143F8A1-34D5-4721-AFED-CABCDAF6E2AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B36144-BD7D-46F0-B094-C546805B4D20}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1729,8 +1729,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341E2E92-4E13-4BBA-9194-2AA7AACE48FC}">
-  <dimension ref="A1:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E3D41-7120-4486-B441-40F7AB68532A}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -1740,13 +1740,14 @@
   <cols>
     <col min="2" max="4" width="10.59765625" customWidth="1"/>
     <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.59765625" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
@@ -1758,45 +1759,21 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="M2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="M3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q9" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="12" t="s">
         <v>69</v>
       </c>
@@ -1809,32 +1786,41 @@
       <c r="E10" s="12" t="s">
         <v>82</v>
       </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="Q10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="R10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
         <v>83</v>
       </c>
@@ -1847,29 +1833,38 @@
       <c r="E11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="14">
+      <c r="H11" s="14">
         <v>0.99999999999978673</v>
       </c>
+      <c r="I11" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="J11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="15">
+        <v>4755.5154264408775</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="O11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="15">
-        <v>4755.5154264408775</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R11" s="13" t="s">
         <v>88</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE68C1A-0F2F-4479-BF1F-800FEF1B07B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4253F21-4020-4359-A047-41A4F6CB87AB}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78BC4230-9953-4941-BDD8-70089943BB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D5C7597-E523-4371-A146-10C027834CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D7A8E6-2A0A-C22B-62C2-065367ED73C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC9200B-57B4-1E39-EAD1-EC08AF1DA1CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B36144-BD7D-46F0-B094-C546805B4D20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02ED635-1C39-4D0E-B4F1-0CEA3783F31C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1729,7 +1729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E3D41-7120-4486-B441-40F7AB68532A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225EFF02-5750-4BDF-882A-DB5E385E4B7D}">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1861,7 +1861,7 @@
         <v>75</v>
       </c>
       <c r="R11" s="19">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="S11" s="18" t="s">
         <v>98</v>
@@ -1877,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4253F21-4020-4359-A047-41A4F6CB87AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2533A6-D42D-40F3-9F7F-5CA15F0BD2A5}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D5C7597-E523-4371-A146-10C027834CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE38176-1739-4D21-A2E5-077053EBBE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC9200B-57B4-1E39-EAD1-EC08AF1DA1CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AB9161-B352-6084-ADBF-18FBD2A0E8C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02ED635-1C39-4D0E-B4F1-0CEA3783F31C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5E5554-6F9F-439F-9787-CA2F1525B8A8}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1729,7 +1729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225EFF02-5750-4BDF-882A-DB5E385E4B7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3561A602-2533-4DB0-A773-CF16EAFED4F0}">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1861,7 +1861,7 @@
         <v>75</v>
       </c>
       <c r="R11" s="19">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="S11" s="18" t="s">
         <v>98</v>
@@ -1877,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2533A6-D42D-40F3-9F7F-5CA15F0BD2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED588AC-4F08-4607-857B-876C079F0C84}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE38176-1739-4D21-A2E5-077053EBBE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC190C1-B292-4EB1-8CCC-D48581AF2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -343,9 +343,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -553,7 +552,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,7 +572,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -624,7 +622,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AB9161-B352-6084-ADBF-18FBD2A0E8C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B8D2D2-B081-0D4E-51A0-5D61D256CFE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5E5554-6F9F-439F-9787-CA2F1525B8A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF10A24D-9CA3-4988-8F4C-A2A4E8AB3CFB}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1729,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3561A602-2533-4DB0-A773-CF16EAFED4F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EDB32A-F316-47D5-8BDE-EF51D8E95799}">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1748,16 +1746,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -1810,13 +1808,13 @@
       <c r="O10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="R10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="S10" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1848,8 +1846,8 @@
       <c r="L11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="15">
-        <v>4755.5154264408775</v>
+      <c r="M11" s="14">
+        <v>0.99999999999976508</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>84</v>
@@ -1857,13 +1855,13 @@
       <c r="O11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="18">
         <v>1.2</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="17" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1877,7 +1875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED588AC-4F08-4607-857B-876C079F0C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99FB6D5-F604-446E-BC85-E6E969769F96}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7DE7D4A-F991-4A66-8280-98BCE7B2AD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9768C388-25E4-426E-B1C7-C3D4D0B7EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
   <si>
     <t>UC_N</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>AllH</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
     <t>~TFM_DINS-AT</t>
@@ -343,10 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,35 +394,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,26 +418,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -511,36 +460,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -552,7 +471,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -568,19 +487,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -603,171 +509,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F618E15-09A3-50DF-A909-559C96610D1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5B566C-E561-79F9-62D9-16A8F25FEE8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16DCD0B-0561-0C12-D68D-0DDB654E6653}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1187,7 +928,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1198,7 +939,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1206,7 +947,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1788,347 +1529,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464FDA5-E8A9-4F10-96F6-DD53B22A2238}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D433609B-7526-4883-953B-914411253CE1}">
+  <dimension ref="B9:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="6" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC6A497-CA3E-4D22-8FAA-510068935CB6}">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB4F19F-1DFA-40B0-A887-CDFF2213FD31}">
+  <dimension ref="B9:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.59765625" customWidth="1"/>
-    <col min="17" max="19" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="S10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="S10" s="19" t="s">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>0.99999999999983202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0.99999999999978673</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11">
+        <v>0.99999999999976508</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11">
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="S11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.99999999999983202</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0.99999999999978673</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0.99999999999976508</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7155B2E3-5FE1-468C-8463-64F276DEB67F}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA978A5-76ED-4A2E-862B-7B2BBC892E55}">
+  <dimension ref="B9:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="C11" s="15">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11">
+        <v>0.34111765552101359</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0.34111765552101359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G12" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="17">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>